--- a/Parkinson_SampleData02.xlsx
+++ b/Parkinson_SampleData02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal Folders\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4646EC46-4CC0-4864-9262-EA90059501CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0C145-BB3A-4943-BC6A-0C198A8D95A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1A95241F-69B9-4D07-9BDF-0CD891EBE633}"/>
+    <workbookView xWindow="6096" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1A95241F-69B9-4D07-9BDF-0CD891EBE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Parkinsons</t>
   </si>
   <si>
     <t>Times</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
   </si>
 </sst>
 </file>
@@ -390,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC124BB5-871F-48F3-A1A8-512642FA2BF3}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,60 +443,57 @@
     <col min="2" max="16" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,15 +539,12 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
+      <c r="P2" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -554,15 +590,12 @@
       <c r="O3">
         <v>-1</v>
       </c>
-      <c r="P3">
-        <v>-1</v>
-      </c>
-      <c r="Q3" t="b">
+      <c r="P3" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -621,16 +654,12 @@
         <f t="shared" si="0"/>
         <v>0.33800000000000008</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0.3640000000000001</v>
-      </c>
-      <c r="Q4" t="b">
+      <c r="P4" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -689,11 +718,7 @@
         <f t="shared" si="1"/>
         <v>0.13005756803142338</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>-5.7580663333013066E-2</v>
-      </c>
-      <c r="Q5" t="b">
+      <c r="P5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
